--- a/lixiao/summary_2023-11/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2023-11/assess_绩效+软性考核表.xlsx
@@ -2270,8 +2270,10 @@
           <t/>
         </is>
       </c>
-      <c r="K8" s="23" t="e">
-        <v>#N/A</v>
+      <c r="K8" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2321,8 +2323,10 @@
           <t/>
         </is>
       </c>
-      <c r="K9" s="23" t="e">
-        <v>#N/A</v>
+      <c r="K9" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2423,22 +2427,64 @@
           <t/>
         </is>
       </c>
-      <c r="K11" s="23" t="e">
-        <v>#N/A</v>
+      <c r="K11" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="23"/>
+      <c r="A12" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23" t="inlineStr">
+        <is>
+          <t>曹卓补充订单</t>
+        </is>
+      </c>
+      <c r="D12" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>曹卓交付三个订单所需数据</t>
+        </is>
+      </c>
+      <c r="H12" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" s="23" t="inlineStr">
+        <is>
+          <t>待完成</t>
+        </is>
+      </c>
+      <c r="J12" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="23"/>
@@ -2661,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="26" t="inlineStr">
         <is>
@@ -2673,7 +2719,7 @@
       </c>
       <c r="I30" s="51" t="inlineStr">
         <is>
-          <t>NA+NA+NA=NA</t>
+          <t>NA+NA+NA+NA=NA</t>
         </is>
       </c>
       <c r="J30" s="26"/>

--- a/lixiao/summary_2023-11/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2023-11/assess_绩效+软性考核表.xlsx
@@ -2270,10 +2270,8 @@
           <t/>
         </is>
       </c>
-      <c r="K8" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K8" s="23">
+        <v>0.083</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2323,10 +2321,8 @@
           <t/>
         </is>
       </c>
-      <c r="K9" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K9" s="23">
+        <v>0.117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2340,7 +2336,7 @@
       </c>
       <c r="C10" s="23" t="inlineStr">
         <is>
-          <t>IN2023110603</t>
+          <t>曹卓肺癌和癌旁组织对比分析</t>
         </is>
       </c>
       <c r="D10" s="23" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="E10" s="37" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t/>
         </is>
       </c>
       <c r="F10" s="23">
@@ -2358,7 +2354,7 @@
       </c>
       <c r="G10" s="38" t="inlineStr">
         <is>
-          <t>OCTA 在糖尿病视网膜病变中的应用</t>
+          <t>肺癌和癌旁组织单细胞数据对比分析</t>
         </is>
       </c>
       <c r="H10" s="39" t="inlineStr">
@@ -2391,17 +2387,17 @@
       </c>
       <c r="C11" s="23" t="inlineStr">
         <is>
-          <t>A2023060507</t>
+          <t>IN2023110603</t>
         </is>
       </c>
       <c r="D11" s="23" t="inlineStr">
         <is>
-          <t>其他业务</t>
+          <t>固定业务</t>
         </is>
       </c>
       <c r="E11" s="37" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="F11" s="23">
@@ -2409,7 +2405,7 @@
       </c>
       <c r="G11" s="38" t="inlineStr">
         <is>
-          <t>脓毒症肠损伤联合肠道菌与代谢物分析</t>
+          <t>OCTA 在糖尿病视网膜病变中的应用</t>
         </is>
       </c>
       <c r="H11" s="39" t="inlineStr">
@@ -2427,10 +2423,8 @@
           <t/>
         </is>
       </c>
-      <c r="K11" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K11" s="23">
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2444,7 +2438,7 @@
       </c>
       <c r="C12" s="23" t="inlineStr">
         <is>
-          <t>曹卓补充订单</t>
+          <t>A2023060507</t>
         </is>
       </c>
       <c r="D12" s="23" t="inlineStr">
@@ -2454,7 +2448,7 @@
       </c>
       <c r="E12" s="37" t="inlineStr">
         <is>
-          <t/>
+          <t>2-3</t>
         </is>
       </c>
       <c r="F12" s="23">
@@ -2462,42 +2456,78 @@
       </c>
       <c r="G12" s="38" t="inlineStr">
         <is>
+          <t>脓毒症肠损伤联合肠道菌与代谢物分析</t>
+        </is>
+      </c>
+      <c r="H12" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J12" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="23">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B13" s="23">
+        <v>7</v>
+      </c>
+      <c r="C13" s="23" t="inlineStr">
+        <is>
+          <t>曹卓补充订单</t>
+        </is>
+      </c>
+      <c r="D13" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E13" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="38" t="inlineStr">
+        <is>
           <t>曹卓交付三个订单所需数据</t>
         </is>
       </c>
-      <c r="H12" s="39" t="inlineStr">
+      <c r="H13" s="39" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="I12" s="23" t="inlineStr">
-        <is>
-          <t>待完成</t>
-        </is>
-      </c>
-      <c r="J12" s="48" t="inlineStr">
+      <c r="I13" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J13" s="48" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="K12" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="23">
+        <v>0.083</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="23"/>
@@ -2681,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
@@ -2689,15 +2719,15 @@
         </is>
       </c>
       <c r="H29" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I29" s="51" t="inlineStr">
         <is>
-          <t>0.25+0.25=0.5</t>
-        </is>
-      </c>
-      <c r="J29" s="26" t="e">
-        <v>#N/A</v>
+          <t>0.25+0.25+0.25=0.75</t>
+        </is>
+      </c>
+      <c r="J29" s="26">
+        <v>1.116</v>
       </c>
       <c r="K29" s="52"/>
     </row>
@@ -2714,12 +2744,12 @@
           <t/>
         </is>
       </c>
-      <c r="H30" s="26" t="e">
-        <v>#N/A</v>
+      <c r="H30" s="26">
+        <v>0.366</v>
       </c>
       <c r="I30" s="51" t="inlineStr">
         <is>
-          <t>NA+NA+NA+NA=NA</t>
+          <t>0.083+0.117+0.083+0.083=0.366</t>
         </is>
       </c>
       <c r="J30" s="26"/>
